--- a/examples/wangetal2018/out/ResultFiles/PL_0.2_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_0.2_nfc.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="182">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -306,6 +312,9 @@
     <t>S 10</t>
   </si>
   <si>
+    <t>S 5S</t>
+  </si>
+  <si>
     <t>Breakdown of compressor by station</t>
   </si>
   <si>
@@ -522,7 +531,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1161,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1183,10 +1192,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.3130641037053156</v>
+        <v>0.3344797640182757</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1194,10 +1203,10 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.08960840153097462</v>
+        <v>0.1394276617017845</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1208,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1216,10 +1225,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03059892134853148</v>
+        <v>0.03074742197029123</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1230,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1238,10 +1247,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006323066413306756</v>
+        <v>0.006353753092850425</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1249,10 +1258,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.02398527308563329</v>
+        <v>0.02759007642779162</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1263,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1271,10 +1280,10 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.02744855735491797</v>
+        <v>0.03109313081437986</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1282,10 +1291,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.0905355701284371</v>
+        <v>0.03682589615473632</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1296,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1307,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1318,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1326,10 +1335,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.004095973771324226</v>
+        <v>0.006690482575064374</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1337,10 +1346,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.03937863854628167</v>
+        <v>0.05480885673538737</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1348,10 +1357,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001089701525908519</v>
+        <v>0.0009424845459900503</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1362,7 +1371,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1373,7 +1382,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1384,7 +1393,7 @@
         <v>9.271350212696891</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1395,7 +1404,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1406,7 +1415,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1414,10 +1423,10 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>245.1648477703319</v>
+        <v>330.8287553760343</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1425,10 +1434,10 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>152.3383266238989</v>
+        <v>205.5673945567618</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1447,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1455,10 +1464,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>5152.229344128954</v>
+        <v>2095.700756322763</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1466,10 +1475,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>214.6762226720398</v>
+        <v>87.32086484678177</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1480,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1488,10 +1497,10 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>148614848.7143616</v>
+        <v>230122893.8348645</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1502,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1513,7 +1522,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1524,7 +1533,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1532,208 +1541,297 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>39779392</v>
+        <v>45536934</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>7.406825856025969</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
+      <c r="E46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>650</v>
+      </c>
+      <c r="B47">
+        <v>69.61689307224945</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47">
+        <v>19505918.28088856</v>
+      </c>
+      <c r="F47">
+        <v>16547177.50064489</v>
+      </c>
+      <c r="G47">
+        <v>7208673.118740405</v>
+      </c>
+      <c r="H47">
+        <v>1250816.503051943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>750</v>
+      </c>
+      <c r="B48">
+        <v>128.7666894375888</v>
+      </c>
+      <c r="C48" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+      <c r="D48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48">
+        <v>48698306.18151357</v>
+      </c>
+      <c r="F48">
+        <v>34553843.52768458</v>
+      </c>
+      <c r="G48">
+        <v>15049448.01427013</v>
+      </c>
+      <c r="H48">
+        <v>2575127.242852133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
         <v>650</v>
       </c>
-      <c r="B46">
-        <v>245.1648477703319</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46">
-        <v>68692601.3919003</v>
-      </c>
-      <c r="F46">
-        <v>52412774.26871531</v>
-      </c>
-      <c r="G46">
-        <v>23063837.45873342</v>
-      </c>
-      <c r="H46">
-        <v>4445635.595012539</v>
+      <c r="B49">
+        <v>84.78840443480001</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49">
+        <v>23756815.55273835</v>
+      </c>
+      <c r="F49">
+        <v>19821533.44157168</v>
+      </c>
+      <c r="G49">
+        <v>8648721.624708481</v>
+      </c>
+      <c r="H49">
+        <v>1525602.26064252</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" t="s">
+      <c r="A50">
+        <v>650</v>
+      </c>
+      <c r="B50">
+        <v>47.65676843139605</v>
+      </c>
+      <c r="C50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
+      <c r="D50" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52">
-        <v>8.523413662377278</v>
-      </c>
-      <c r="C52">
-        <v>12.5</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G52">
-        <v>81.46493078375832</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53">
-        <v>6.981517595298072</v>
-      </c>
-      <c r="C53">
-        <v>12.5</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G53">
-        <v>66.72782410843564</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="E50">
+        <v>13352923.25656216</v>
+      </c>
+      <c r="F50">
+        <v>11694743.85891813</v>
+      </c>
+      <c r="G50">
+        <v>5079356.469625179</v>
+      </c>
+      <c r="H50">
+        <v>853887.0004517577</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B54">
-        <v>6.955951378650574</v>
-      </c>
-      <c r="C54">
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56">
+        <v>3.057926597597514</v>
+      </c>
+      <c r="C56">
         <v>12.5</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>16916025.69007904</v>
       </c>
-      <c r="G54">
-        <v>66.4834677798458</v>
-      </c>
-      <c r="H54">
+      <c r="G56">
+        <v>29.22699618753624</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57">
+        <v>2.39510950051981</v>
+      </c>
+      <c r="C57">
+        <v>12.5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G57">
+        <v>22.8919347820258</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58">
+        <v>3.683065108686197</v>
+      </c>
+      <c r="C58">
+        <v>12.5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G58">
+        <v>35.20193387721974</v>
+      </c>
+      <c r="H58">
         <v>0</v>
       </c>
     </row>
@@ -1752,58 +1850,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1811,31 +1909,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F2">
-        <v>55.57918419700997</v>
+        <v>55.2601530803916</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
         <v>4.865822962046021</v>
@@ -1850,16 +1948,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>4549364.86213365</v>
+        <v>4553008.387993378</v>
       </c>
       <c r="P2">
-        <v>6.367258922872051</v>
+        <v>6.325522069750777</v>
       </c>
       <c r="Q2">
-        <v>0.01298149221025951</v>
+        <v>0.01289611642865434</v>
       </c>
       <c r="R2">
-        <v>23.46837125798666</v>
+        <v>23.45878399323562</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1867,55 +1965,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F3">
-        <v>55.57918308204252</v>
+        <v>55.26015056730185</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>0.8227025317557874</v>
+        <v>29.61689307224945</v>
       </c>
       <c r="M3">
-        <v>0.5112034948596255</v>
+        <v>18.40307846519671</v>
       </c>
       <c r="N3">
-        <v>4549364.86213365</v>
+        <v>4553008.387993378</v>
       </c>
       <c r="O3">
-        <v>4542619.528057269</v>
+        <v>4306452.456978833</v>
       </c>
       <c r="P3">
-        <v>6.376909266460708</v>
+        <v>6.694918869731114</v>
       </c>
       <c r="Q3">
-        <v>0.01300169609303073</v>
+        <v>0.01366985061635695</v>
       </c>
       <c r="R3">
-        <v>23.48615004126275</v>
+        <v>24.13403458816726</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1923,55 +2021,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F4">
-        <v>56.30304235460837</v>
+        <v>55.98005330010233</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I4">
         <v>7.925</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>5.096226240974513</v>
       </c>
       <c r="L4">
-        <v>40.82270253175579</v>
+        <v>69.61689307224945</v>
       </c>
       <c r="M4">
-        <v>25.36604349485962</v>
+        <v>43.25791846519672</v>
       </c>
       <c r="N4">
         <v>4865822.962046022</v>
       </c>
       <c r="O4">
-        <v>4542619.528057269</v>
+        <v>4306452.456978833</v>
       </c>
       <c r="P4">
-        <v>6.395977745654582</v>
+        <v>6.71496221867439</v>
       </c>
       <c r="Q4">
-        <v>0.01304057426442623</v>
+        <v>0.01371077562101158</v>
       </c>
       <c r="R4">
-        <v>23.48615004126275</v>
+        <v>24.13403458816726</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1979,55 +2077,55 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F5">
-        <v>111.8824807983092</v>
+        <v>111.2404436420996</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>29.17729746824421</v>
+        <v>0.3831069277505463</v>
       </c>
       <c r="M5">
-        <v>18.12992650514037</v>
+        <v>0.2380515348032847</v>
       </c>
       <c r="N5">
-        <v>4542619.528057269</v>
+        <v>4306452.456978833</v>
       </c>
       <c r="O5">
-        <v>3475617.618925924</v>
+        <v>4293548.735316471</v>
       </c>
       <c r="P5">
-        <v>16.84043836210342</v>
+        <v>13.51837139682911</v>
       </c>
       <c r="Q5">
-        <v>0.03457813693502917</v>
+        <v>0.02760436646987727</v>
       </c>
       <c r="R5">
-        <v>26.90027423368534</v>
+        <v>24.17092575115627</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2035,31 +2133,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F6">
-        <v>61.82434345906127</v>
+        <v>52.87934521713881</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>4.865822962046021</v>
@@ -2074,16 +2172,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O6">
-        <v>4559591.14787097</v>
+        <v>4641835.188506175</v>
       </c>
       <c r="P6">
-        <v>7.066400712712809</v>
+        <v>5.934656769156635</v>
       </c>
       <c r="Q6">
-        <v>0.01440600671992242</v>
+        <v>0.01209280375226052</v>
       </c>
       <c r="R6">
-        <v>23.44149110661374</v>
+        <v>23.22847173737768</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2091,31 +2189,31 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F7">
-        <v>42.03869085041303</v>
+        <v>33.09369304449473</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
         <v>4.865822962046021</v>
@@ -2127,19 +2225,19 @@
         <v>30.1364935</v>
       </c>
       <c r="N7">
-        <v>4559591.14787097</v>
+        <v>4641835.188506175</v>
       </c>
       <c r="O7">
-        <v>4322564.891799768</v>
+        <v>4496689.717610825</v>
       </c>
       <c r="P7">
-        <v>5.07371409831107</v>
+        <v>3.836549557021681</v>
       </c>
       <c r="Q7">
-        <v>0.01035859568183304</v>
+        <v>0.007824404295888234</v>
       </c>
       <c r="R7">
-        <v>24.08819579697001</v>
+        <v>23.60824313269576</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2147,55 +2245,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F8">
-        <v>42.03869084730552</v>
+        <v>33.0936930520819</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>21.44408146249023</v>
+        <v>48.76668943758881</v>
       </c>
       <c r="M8">
-        <v>13.32473034242902</v>
+        <v>30.302206582524</v>
       </c>
       <c r="N8">
-        <v>4322564.891799768</v>
+        <v>4496689.717610825</v>
       </c>
       <c r="O8">
-        <v>4213433.229592335</v>
+        <v>4345759.244124011</v>
       </c>
       <c r="P8">
-        <v>5.207472490417168</v>
+        <v>3.972419901143329</v>
       </c>
       <c r="Q8">
-        <v>0.01063895586103933</v>
+        <v>0.008109004024085785</v>
       </c>
       <c r="R8">
-        <v>24.40364894972</v>
+        <v>24.02264574345469</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2203,55 +2301,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F9">
-        <v>49.64669054826923</v>
+        <v>58.21309488993828</v>
       </c>
       <c r="G9">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I9">
-        <v>7.925</v>
+        <v>6.35</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>5.096226240974513</v>
+        <v>5.060455880527861</v>
       </c>
       <c r="L9">
-        <v>101.4440814624902</v>
+        <v>128.7666894375888</v>
       </c>
       <c r="M9">
-        <v>63.034410342429</v>
+        <v>80.011886582524</v>
       </c>
       <c r="N9">
         <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4213433.229592335</v>
+        <v>4345759.244124011</v>
       </c>
       <c r="P9">
-        <v>6.088987569379594</v>
+        <v>5.119285451575466</v>
       </c>
       <c r="Q9">
-        <v>0.01243990632850316</v>
+        <v>0.01045013048981084</v>
       </c>
       <c r="R9">
-        <v>24.40364894972</v>
+        <v>24.02264574345469</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2259,55 +2357,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F10">
-        <v>91.68538747164216</v>
+        <v>91.30679517509891</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>28.55591853750977</v>
+        <v>1.233310562411191</v>
       </c>
       <c r="M10">
-        <v>17.74381965757098</v>
+        <v>0.7663434174760042</v>
       </c>
       <c r="N10">
-        <v>4213433.229592335</v>
+        <v>4345759.244124011</v>
       </c>
       <c r="O10">
-        <v>3476145.531388339</v>
+        <v>4317772.319172739</v>
       </c>
       <c r="P10">
-        <v>13.79797910797939</v>
+        <v>11.03241378797499</v>
       </c>
       <c r="Q10">
-        <v>0.02833100555340435</v>
+        <v>0.02252466697727003</v>
       </c>
       <c r="R10">
-        <v>26.898217590571</v>
+        <v>24.10180424387942</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2315,31 +2413,31 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F11">
-        <v>45.37874140675802</v>
+        <v>45.30037702841479</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
         <v>4.865822962046021</v>
@@ -2354,16 +2452,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O11">
-        <v>4600350.550226116</v>
+        <v>4601263.459173525</v>
       </c>
       <c r="P11">
-        <v>5.139780925130363</v>
+        <v>5.129865380019718</v>
       </c>
       <c r="Q11">
-        <v>0.0104757146399929</v>
+        <v>0.01045544796424814</v>
       </c>
       <c r="R11">
-        <v>23.33522391241306</v>
+        <v>23.3328595794197</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2371,55 +2469,55 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F12">
-        <v>45.37874140676055</v>
+        <v>45.30037702837195</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
         <v>4.865822962046021</v>
       </c>
       <c r="L12">
-        <v>5.241291095056198</v>
+        <v>34.78840443480001</v>
       </c>
       <c r="M12">
-        <v>3.256786289026165</v>
+        <v>21.61650565205612</v>
       </c>
       <c r="N12">
-        <v>4600350.550226116</v>
+        <v>4601263.459173525</v>
       </c>
       <c r="O12">
-        <v>4571609.335420656</v>
+        <v>4407622.204805959</v>
       </c>
       <c r="P12">
-        <v>5.172779762388635</v>
+        <v>5.35990604375494</v>
       </c>
       <c r="Q12">
-        <v>0.01054479014037426</v>
+        <v>0.01093714074360025</v>
       </c>
       <c r="R12">
-        <v>23.41001340818854</v>
+        <v>23.85028492406753</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2427,55 +2525,55 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F13">
-        <v>45.9703286760761</v>
+        <v>45.89103407770096</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I13">
         <v>7.925</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K13">
         <v>5.096226240974513</v>
       </c>
       <c r="L13">
-        <v>55.2412910950562</v>
+        <v>84.78840443480001</v>
       </c>
       <c r="M13">
-        <v>34.32533628902617</v>
+        <v>52.68505565205612</v>
       </c>
       <c r="N13">
         <v>4865822.962046022</v>
       </c>
       <c r="O13">
-        <v>4571609.335420656</v>
+        <v>4407622.204805959</v>
       </c>
       <c r="P13">
-        <v>5.188312462342398</v>
+        <v>5.376011348143026</v>
       </c>
       <c r="Q13">
-        <v>0.01057645378523243</v>
+        <v>0.01097000437579325</v>
       </c>
       <c r="R13">
-        <v>23.41001340818854</v>
+        <v>23.85028492406753</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2483,55 +2581,55 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F14">
-        <v>91.34907007863957</v>
+        <v>91.19141118756333</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
         <v>4.865822962046021</v>
       </c>
       <c r="L14">
-        <v>44.7587089049438</v>
+        <v>15.21159556519999</v>
       </c>
       <c r="M14">
-        <v>27.81176371097384</v>
+        <v>9.452044347943884</v>
       </c>
       <c r="N14">
-        <v>4571609.335420656</v>
+        <v>4407622.204805959</v>
       </c>
       <c r="O14">
-        <v>3476138.705618315</v>
+        <v>4054971.882850352</v>
       </c>
       <c r="P14">
-        <v>13.74738865705427</v>
+        <v>11.74481620389902</v>
       </c>
       <c r="Q14">
-        <v>0.02822713101334292</v>
+        <v>0.02401923222868254</v>
       </c>
       <c r="R14">
-        <v>26.89824417954015</v>
+        <v>24.88353259902585</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2539,55 +2637,55 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F15">
-        <v>45.21229023625971</v>
+        <v>45.21229023625961</v>
       </c>
       <c r="G15">
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
         <v>4.865822962046021</v>
       </c>
       <c r="L15">
-        <v>47.65677268102965</v>
+        <v>47.65676843139605</v>
       </c>
       <c r="M15">
-        <v>29.61253649758407</v>
+        <v>29.612533856985</v>
       </c>
       <c r="N15">
         <v>4865822.962046022</v>
       </c>
       <c r="O15">
-        <v>4614981.755726671</v>
+        <v>4614981.778716205</v>
       </c>
       <c r="P15">
-        <v>5.104346267101389</v>
+        <v>5.104346241128581</v>
       </c>
       <c r="Q15">
-        <v>0.01040258206101197</v>
+        <v>0.01040258200664975</v>
       </c>
       <c r="R15">
-        <v>23.29741319630089</v>
+        <v>23.29741313702804</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2595,55 +2693,55 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F16">
-        <v>45.80170306264956</v>
+        <v>45.80170306264945</v>
       </c>
       <c r="G16">
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I16">
         <v>7.925</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K16">
         <v>5.096226240974513</v>
       </c>
       <c r="L16">
-        <v>47.65677268102965</v>
+        <v>47.65676843139605</v>
       </c>
       <c r="M16">
-        <v>29.61253649758407</v>
+        <v>29.612533856985</v>
       </c>
       <c r="N16">
         <v>4865822.962046022</v>
       </c>
       <c r="O16">
-        <v>4614981.755726671</v>
+        <v>4614981.778716205</v>
       </c>
       <c r="P16">
-        <v>5.119672976316013</v>
+        <v>5.119672950265216</v>
       </c>
       <c r="Q16">
-        <v>0.01043381766729479</v>
+        <v>0.01043381761276934</v>
       </c>
       <c r="R16">
-        <v>23.29741319630089</v>
+        <v>23.29741313702804</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2651,55 +2749,55 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F17">
-        <v>91.01399328947151</v>
+        <v>91.01399327970741</v>
       </c>
       <c r="G17">
         <v>650</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17">
         <v>9.525</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17">
         <v>4.865822962046021</v>
       </c>
       <c r="L17">
-        <v>2.343227318970349</v>
+        <v>2.343231568603954</v>
       </c>
       <c r="M17">
-        <v>1.456013502415925</v>
+        <v>1.456016143015008</v>
       </c>
       <c r="N17">
-        <v>4614981.755726671</v>
+        <v>4614981.778716205</v>
       </c>
       <c r="O17">
-        <v>4565172.340014398</v>
+        <v>4565172.272426032</v>
       </c>
       <c r="P17">
-        <v>10.38973507837839</v>
+        <v>10.38973523113018</v>
       </c>
       <c r="Q17">
-        <v>0.02118045270100303</v>
+        <v>0.02118045302101429</v>
       </c>
       <c r="R17">
-        <v>23.42685792535061</v>
+        <v>23.42685810240026</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2707,31 +2805,31 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F18">
-        <v>91.01399328883333</v>
+        <v>91.01399328869097</v>
       </c>
       <c r="G18">
         <v>650</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>9.525</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18">
         <v>4.865822962046021</v>
@@ -2743,19 +2841,19 @@
         <v>31.06855</v>
       </c>
       <c r="N18">
-        <v>4565172.340014398</v>
+        <v>4565172.272426032</v>
       </c>
       <c r="O18">
-        <v>3325810.294181737</v>
+        <v>3325810.201031001</v>
       </c>
       <c r="P18">
-        <v>14.31962272630317</v>
+        <v>14.31962312899442</v>
       </c>
       <c r="Q18">
-        <v>0.02943540096014544</v>
+        <v>0.02943540180902455</v>
       </c>
       <c r="R18">
-        <v>27.50284332381738</v>
+        <v>27.50284371066368</v>
       </c>
     </row>
   </sheetData>
@@ -2773,72 +2871,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2847,16 +2945,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.399988000851979</v>
+        <v>1.133286999172112</v>
       </c>
       <c r="I2">
-        <v>81.46493078375832</v>
+        <v>29.22699618753624</v>
       </c>
       <c r="J2">
-        <v>8.523413662377278</v>
+        <v>3.057926597597514</v>
       </c>
       <c r="K2">
-        <v>11430.06818952118</v>
+        <v>4100.740725910218</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2882,16 +2980,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2900,16 +2998,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.39977538860482</v>
+        <v>1.126929027832178</v>
       </c>
       <c r="I3">
-        <v>66.72782410843564</v>
+        <v>22.8919347820258</v>
       </c>
       <c r="J3">
-        <v>6.981517595298072</v>
+        <v>2.39510950051981</v>
       </c>
       <c r="K3">
-        <v>9362.354725646621</v>
+        <v>3211.889742387076</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2935,16 +3033,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2953,16 +3051,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.399778137213463</v>
+        <v>1.199964661314914</v>
       </c>
       <c r="I4">
-        <v>66.4834677798458</v>
+        <v>35.20193387721974</v>
       </c>
       <c r="J4">
-        <v>6.955951378650574</v>
+        <v>3.683065108686197</v>
       </c>
       <c r="K4">
-        <v>9328.069917797993</v>
+        <v>4939.063972050364</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3001,15 +3099,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -3017,31 +3115,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B3">
-        <v>4549364.86213365</v>
+        <v>4553008.387993378</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4">
-        <v>4542619.528057269</v>
+        <v>4306452.456978833</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B5">
-        <v>3475617.618925924</v>
+        <v>4293548.735316471</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>4865822.962046022</v>
@@ -3049,39 +3147,39 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B7">
-        <v>4559591.14787097</v>
+        <v>4641835.188506175</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B8">
-        <v>4322564.891799768</v>
+        <v>4496689.717610825</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B9">
-        <v>4213433.229592335</v>
+        <v>4345759.244124011</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B10">
-        <v>3476145.531388339</v>
+        <v>4317772.319172739</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B11">
         <v>4865822.962046022</v>
@@ -3089,31 +3187,31 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B12">
-        <v>4600350.550226116</v>
+        <v>4601263.459173525</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B13">
-        <v>4571609.335420656</v>
+        <v>4407622.204805959</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B14">
-        <v>3476138.705618315</v>
+        <v>4054971.882850352</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>4865822.962046022</v>
@@ -3121,26 +3219,26 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B16">
-        <v>4614981.755726671</v>
+        <v>4614981.778716205</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B17">
-        <v>4565172.340014398</v>
+        <v>4565172.272426032</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B18">
-        <v>3325810.294181737</v>
+        <v>3325810.201031001</v>
       </c>
     </row>
   </sheetData>
@@ -3158,36 +3256,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.78565260864823</v>
+        <v>19.78565217264408</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -3196,21 +3294,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520501293216</v>
+        <v>1150.52047593991</v>
       </c>
       <c r="G2">
-        <v>8.804121671500931E-06</v>
+        <v>6.60048352456914E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269155982524</v>
+        <v>51.44269155974477</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -3219,21 +3317,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999668684</v>
+        <v>2991.352999664005</v>
       </c>
       <c r="G3">
-        <v>-1.107577889071734E-08</v>
+        <v>-1.123220337469353E-08</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
       </c>
       <c r="C4">
-        <v>39.57130172900808</v>
+        <v>39.57130172894619</v>
       </c>
       <c r="D4">
         <v>58.14923187271204</v>
@@ -3242,10 +3340,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799745142</v>
+        <v>2301.040799741543</v>
       </c>
       <c r="G4">
-        <v>-1.10757884112348E-08</v>
+        <v>-1.123220322449791E-08</v>
       </c>
     </row>
   </sheetData>

--- a/examples/wangetal2018/out/ResultFiles/PL_0.2_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_0.2_nfc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="245">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -309,12 +309,15 @@
     <t>X42</t>
   </si>
   <si>
+    <t>S 40S</t>
+  </si>
+  <si>
+    <t>S 5S</t>
+  </si>
+  <si>
     <t>S 10</t>
   </si>
   <si>
-    <t>S 5S</t>
-  </si>
-  <si>
     <t>Breakdown of compressor by station</t>
   </si>
   <si>
@@ -399,9 +402,18 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02_pre_loop_cxn</t>
   </si>
   <si>
@@ -411,12 +423,27 @@
     <t>PI02_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
     <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
@@ -426,9 +453,21 @@
     <t>PI05_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
     <t>PI06</t>
   </si>
   <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
     <t>PI07_pre_loop_cxn</t>
   </si>
   <si>
@@ -438,6 +477,12 @@
     <t>PI07_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08_pre_loop_cxn</t>
   </si>
   <si>
@@ -447,46 +492,190 @@
     <t>PI08_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
     <t>PI09</t>
   </si>
   <si>
+    <t>PS_0_loop_0</t>
+  </si>
+  <si>
+    <t>PS_0_loop_1</t>
+  </si>
+  <si>
+    <t>PS_0_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_0</t>
+  </si>
+  <si>
+    <t>PS_1_loop_1</t>
+  </si>
+  <si>
+    <t>PS_1_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_3</t>
+  </si>
+  <si>
+    <t>PS_1_loop_4</t>
+  </si>
+  <si>
+    <t>PS_1_loop_5</t>
+  </si>
+  <si>
+    <t>PS_2_loop_0</t>
+  </si>
+  <si>
+    <t>PS_2_loop_1</t>
+  </si>
+  <si>
+    <t>PS_2_loop_2</t>
+  </si>
+  <si>
+    <t>PS_2_loop_3</t>
+  </si>
+  <si>
+    <t>PS_3_loop_0</t>
+  </si>
+  <si>
+    <t>PS_3_loop_1</t>
+  </si>
+  <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N01_2</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N03_C_5</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N06_C_3</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
+    <t>N08_C_1_</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_3</t>
   </si>
   <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
+    <t>N01_0_</t>
+  </si>
+  <si>
+    <t>N01_1_</t>
+  </si>
+  <si>
+    <t>N03_C_0_</t>
+  </si>
+  <si>
+    <t>N03_C_1</t>
+  </si>
+  <si>
+    <t>N03_C_2</t>
+  </si>
+  <si>
+    <t>N03_C_3</t>
+  </si>
+  <si>
+    <t>N03_C_4</t>
+  </si>
+  <si>
+    <t>N06_C_0_</t>
+  </si>
+  <si>
+    <t>N06_C_1_</t>
+  </si>
+  <si>
+    <t>N06_C_2</t>
+  </si>
+  <si>
+    <t>N08_C_0_</t>
   </si>
   <si>
     <t>N03</t>
@@ -1192,7 +1381,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.3344797640182757</v>
+        <v>0.3411488502069983</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1203,7 +1392,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.1394276617017845</v>
+        <v>0.1443043392561885</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1225,7 +1414,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03074742197029123</v>
+        <v>0.03074647491922605</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1247,7 +1436,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006353753092850425</v>
+        <v>0.00635355739095905</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1258,7 +1447,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.02759007642779162</v>
+        <v>0.02695499036129916</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1280,7 +1469,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.03109313081437986</v>
+        <v>0.03111748344886744</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1291,7 +1480,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.03682589615473632</v>
+        <v>0.03793696960710008</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1335,7 +1524,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.006690482575064374</v>
+        <v>0.00682823348220339</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1346,7 +1535,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.05480885673538737</v>
+        <v>0.05594639280339592</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1357,7 +1546,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.0009424845459900503</v>
+        <v>0.0009604089377586035</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1423,7 +1612,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>330.8287553760343</v>
+        <v>331.4011520786673</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -1434,7 +1623,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>205.5673945567618</v>
+        <v>205.9230652682736</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -1464,7 +1653,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>2095.700756322763</v>
+        <v>2158.930106252632</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1475,7 +1664,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>87.32086484678177</v>
+        <v>89.95542109385968</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1497,7 +1686,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>230122893.8348645</v>
+        <v>238179100.1856754</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -1541,7 +1730,7 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>45536934</v>
+        <v>44490106</v>
       </c>
       <c r="C34" t="s">
         <v>78</v>
@@ -1582,7 +1771,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1624,10 +1813,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B47">
-        <v>69.61689307224945</v>
+        <v>66.25942613471366</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
@@ -1636,16 +1825,16 @@
         <v>94</v>
       </c>
       <c r="E47">
-        <v>19505918.28088856</v>
+        <v>23995912.7439847</v>
       </c>
       <c r="F47">
-        <v>16547177.50064489</v>
+        <v>17297868.94948169</v>
       </c>
       <c r="G47">
-        <v>7208673.118740405</v>
+        <v>7512654.403126996</v>
       </c>
       <c r="H47">
-        <v>1250816.503051943</v>
+        <v>1255012.52777407</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1653,7 +1842,7 @@
         <v>750</v>
       </c>
       <c r="B48">
-        <v>128.7666894375888</v>
+        <v>129.4074443459957</v>
       </c>
       <c r="C48" t="s">
         <v>85</v>
@@ -1662,16 +1851,16 @@
         <v>95</v>
       </c>
       <c r="E48">
-        <v>48698306.18151357</v>
+        <v>48940633.43907678</v>
       </c>
       <c r="F48">
-        <v>34553843.52768458</v>
+        <v>34711277.82054639</v>
       </c>
       <c r="G48">
-        <v>15049448.01427013</v>
+        <v>15118615.18795205</v>
       </c>
       <c r="H48">
-        <v>2575127.242852133</v>
+        <v>2588035.218458754</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1679,25 +1868,25 @@
         <v>650</v>
       </c>
       <c r="B49">
-        <v>84.78840443480001</v>
+        <v>85.93864731550245</v>
       </c>
       <c r="C49" t="s">
         <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49">
-        <v>23756815.55273835</v>
+        <v>24079101.46128745</v>
       </c>
       <c r="F49">
-        <v>19821533.44157168</v>
+        <v>20067654.54309705</v>
       </c>
       <c r="G49">
-        <v>8648721.624708481</v>
+        <v>8757053.133683681</v>
       </c>
       <c r="H49">
-        <v>1525602.26064252</v>
+        <v>1546450.961483131</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1705,64 +1894,64 @@
         <v>650</v>
       </c>
       <c r="B50">
-        <v>47.65676843139605</v>
+        <v>49.79563428245561</v>
       </c>
       <c r="C50" t="s">
         <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50">
-        <v>13352923.25656216</v>
+        <v>13952210.88149614</v>
       </c>
       <c r="F50">
-        <v>11694743.85891813</v>
+        <v>12174529.02363672</v>
       </c>
       <c r="G50">
-        <v>5079356.469625179</v>
+        <v>5289593.521079454</v>
       </c>
       <c r="H50">
-        <v>853887.0004517577</v>
+        <v>892496.3695104222</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
-        <v>3.057926597597514</v>
+        <v>3.149215884617172</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1777,7 +1966,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>29.22699618753624</v>
+        <v>30.09951930361845</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1785,10 +1974,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
-        <v>2.39510950051981</v>
+        <v>2.474276353354963</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1803,7 +1992,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>22.8919347820258</v>
+        <v>23.64859431329451</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1811,10 +2000,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
-        <v>3.683065108686197</v>
+        <v>3.788254114473884</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -1829,7 +2018,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>35.20193387721974</v>
+        <v>36.20730747694672</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1842,7 +2031,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1850,58 +2039,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1909,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F2">
-        <v>55.2601530803916</v>
+        <v>50.13083430258141</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1939,25 +2128,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>4553008.387993378</v>
+        <v>4779748.02065544</v>
       </c>
       <c r="P2">
-        <v>6.325522069750777</v>
+        <v>5.490719586315173</v>
       </c>
       <c r="Q2">
-        <v>0.01289611642865434</v>
+        <v>0.01105765062308344</v>
       </c>
       <c r="R2">
-        <v>23.45878399323562</v>
+        <v>23.13470911058705</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1965,19 +2154,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F3">
-        <v>55.26015056730185</v>
+        <v>50.13083334316493</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -1995,25 +2184,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>29.61689307224945</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>18.40307846519671</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>4553008.387993378</v>
+        <v>4779748.02065544</v>
       </c>
       <c r="O3">
-        <v>4306452.456978833</v>
+        <v>4692022.897428636</v>
       </c>
       <c r="P3">
-        <v>6.694918869731114</v>
+        <v>5.504219201977606</v>
       </c>
       <c r="Q3">
-        <v>0.01366985061635695</v>
+        <v>0.01108829855263414</v>
       </c>
       <c r="R3">
-        <v>24.13403458816726</v>
+        <v>23.35967349649083</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2021,55 +2210,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="F4">
-        <v>55.98005330010233</v>
+        <v>50.1308322265844</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I4">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>5.096226240974513</v>
+        <v>4.865822962046021</v>
       </c>
       <c r="L4">
-        <v>69.61689307224945</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M4">
-        <v>43.25791846519672</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N4">
-        <v>4865822.962046022</v>
+        <v>4692022.897428636</v>
       </c>
       <c r="O4">
-        <v>4306452.456978833</v>
+        <v>4602548.880705019</v>
       </c>
       <c r="P4">
-        <v>6.71496221867439</v>
+        <v>5.517817419081913</v>
       </c>
       <c r="Q4">
-        <v>0.01371077562101158</v>
+        <v>0.01111905636745474</v>
       </c>
       <c r="R4">
-        <v>24.13403458816726</v>
+        <v>23.5960195508395</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2077,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F5">
-        <v>111.2404436420996</v>
+        <v>50.13083169159317</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2107,45 +2296,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>0.3831069277505463</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>0.2380515348032847</v>
+        <v>9.320565</v>
       </c>
       <c r="N5">
-        <v>4306452.456978833</v>
+        <v>4602548.880705019</v>
       </c>
       <c r="O5">
-        <v>4293548.735316471</v>
+        <v>4499669.944162264</v>
       </c>
       <c r="P5">
-        <v>13.51837139682911</v>
+        <v>5.533235085191221</v>
       </c>
       <c r="Q5">
-        <v>0.02760436646987727</v>
+        <v>0.01115449892448234</v>
       </c>
       <c r="R5">
-        <v>24.17092575115627</v>
+        <v>23.87528504138124</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F6">
-        <v>52.87934521713881</v>
+        <v>50.1308304990045</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2163,48 +2352,48 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L6">
-        <v>31.5</v>
+        <v>11.25942613471366</v>
       </c>
       <c r="M6">
-        <v>19.5731865</v>
+        <v>6.996280876753162</v>
       </c>
       <c r="N6">
-        <v>4865822.962046022</v>
+        <v>4499669.944162264</v>
       </c>
       <c r="O6">
-        <v>4641835.188506175</v>
+        <v>4420808.073265151</v>
       </c>
       <c r="P6">
-        <v>5.934656769156635</v>
+        <v>5.544891828636261</v>
       </c>
       <c r="Q6">
-        <v>0.01209280375226052</v>
+        <v>0.0111812711748675</v>
       </c>
       <c r="R6">
-        <v>23.22847173737768</v>
+        <v>24.09604631483202</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F7">
-        <v>33.09369304449473</v>
+        <v>61.12186372243759</v>
       </c>
       <c r="G7">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="H7" t="s">
         <v>86</v>
@@ -2213,51 +2402,51 @@
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>4.865822962046021</v>
+        <v>5.687608961592331</v>
       </c>
       <c r="L7">
-        <v>48.5</v>
+        <v>16.56485653367842</v>
       </c>
       <c r="M7">
-        <v>30.1364935</v>
+        <v>10.29292146918829</v>
       </c>
       <c r="N7">
-        <v>4641835.188506175</v>
+        <v>4536334.640551535</v>
       </c>
       <c r="O7">
-        <v>4496689.717610825</v>
+        <v>4420808.073265151</v>
       </c>
       <c r="P7">
-        <v>3.836549557021681</v>
+        <v>5.810105074781281</v>
       </c>
       <c r="Q7">
-        <v>0.007824404295888234</v>
+        <v>0.01171100015826369</v>
       </c>
       <c r="R7">
-        <v>23.60824313269576</v>
+        <v>24.09604631483202</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F8">
-        <v>33.0936930520819</v>
+        <v>111.2524792763788</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2275,25 +2464,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>48.76668943758881</v>
+        <v>3.740573865286336</v>
       </c>
       <c r="M8">
-        <v>30.302206582524</v>
+        <v>2.324284123246836</v>
       </c>
       <c r="N8">
-        <v>4496689.717610825</v>
+        <v>4420808.073265151</v>
       </c>
       <c r="O8">
-        <v>4345759.244124011</v>
+        <v>4293468.676433518</v>
       </c>
       <c r="P8">
-        <v>3.972419901143329</v>
+        <v>12.30924947864527</v>
       </c>
       <c r="Q8">
-        <v>0.008109004024085785</v>
+        <v>0.024832644068082</v>
       </c>
       <c r="R8">
-        <v>24.02264574345469</v>
+        <v>24.46581253113441</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2301,55 +2490,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="F9">
-        <v>58.21309488993828</v>
+        <v>52.8990813117554</v>
       </c>
       <c r="G9">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I9">
-        <v>6.35</v>
+        <v>9.525</v>
       </c>
       <c r="J9" t="s">
         <v>85</v>
       </c>
       <c r="K9">
-        <v>5.060455880527861</v>
+        <v>4.865822962046021</v>
       </c>
       <c r="L9">
-        <v>128.7666894375888</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>80.011886582524</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
         <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4345759.244124011</v>
+        <v>4752636.631339096</v>
       </c>
       <c r="P9">
-        <v>5.119285451575466</v>
+        <v>5.797045821200515</v>
       </c>
       <c r="Q9">
-        <v>0.01045013048981084</v>
+        <v>0.01167569989126812</v>
       </c>
       <c r="R9">
-        <v>24.02264574345469</v>
+        <v>23.20353904459932</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2357,19 +2546,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F10">
-        <v>91.30679517509891</v>
+        <v>52.89908128517093</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2387,45 +2576,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>1.233310562411191</v>
+        <v>15.75</v>
       </c>
       <c r="M10">
-        <v>0.7663434174760042</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N10">
-        <v>4345759.244124011</v>
+        <v>4752636.631339096</v>
       </c>
       <c r="O10">
-        <v>4317772.319172739</v>
+        <v>4636561.609127824</v>
       </c>
       <c r="P10">
-        <v>11.03241378797499</v>
+        <v>5.813911060025813</v>
       </c>
       <c r="Q10">
-        <v>0.02252466697727003</v>
+        <v>0.01171439544096475</v>
       </c>
       <c r="R10">
-        <v>24.10180424387942</v>
+        <v>23.50533213516623</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F11">
-        <v>45.30037702841479</v>
+        <v>33.11343137926652</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2443,45 +2632,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M11">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N11">
-        <v>4865822.962046022</v>
+        <v>4636561.609127824</v>
       </c>
       <c r="O11">
-        <v>4601263.459173525</v>
+        <v>4587482.799107268</v>
       </c>
       <c r="P11">
-        <v>5.129865380019718</v>
+        <v>3.650286810242147</v>
       </c>
       <c r="Q11">
-        <v>0.01045544796424814</v>
+        <v>0.00735614220636231</v>
       </c>
       <c r="R11">
-        <v>23.3328595794197</v>
+        <v>23.63646643076839</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F12">
-        <v>45.30037702837195</v>
+        <v>33.11343138138393</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2499,101 +2688,101 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L12">
-        <v>34.78840443480001</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>21.61650565205612</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>4601263.459173525</v>
+        <v>4587482.799107268</v>
       </c>
       <c r="O12">
-        <v>4407622.204805959</v>
+        <v>4537850.342569541</v>
       </c>
       <c r="P12">
-        <v>5.35990604375494</v>
+        <v>3.661316044694225</v>
       </c>
       <c r="Q12">
-        <v>0.01093714074360025</v>
+        <v>0.00737980141509229</v>
       </c>
       <c r="R12">
-        <v>23.85028492406753</v>
+        <v>23.77056246366883</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="F13">
-        <v>45.89103407770096</v>
+        <v>33.11343137778144</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I13">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>5.096226240974513</v>
+        <v>4.865822962046021</v>
       </c>
       <c r="L13">
-        <v>84.78840443480001</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M13">
-        <v>52.68505565205612</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N13">
-        <v>4865822.962046022</v>
+        <v>4537850.342569541</v>
       </c>
       <c r="O13">
-        <v>4407622.204805959</v>
+        <v>4487646.595751793</v>
       </c>
       <c r="P13">
-        <v>5.376011348143026</v>
+        <v>3.672444429675012</v>
       </c>
       <c r="Q13">
-        <v>0.01097000437579325</v>
+        <v>0.007403650582863804</v>
       </c>
       <c r="R13">
-        <v>23.85028492406753</v>
+        <v>23.90855076187247</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F14">
-        <v>91.19141118756333</v>
+        <v>33.11343137378928</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -2611,45 +2800,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L14">
-        <v>15.21159556519999</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M14">
-        <v>9.452044347943884</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N14">
-        <v>4407622.204805959</v>
+        <v>4487646.595751793</v>
       </c>
       <c r="O14">
-        <v>4054971.882850352</v>
+        <v>4435270.723539879</v>
       </c>
       <c r="P14">
-        <v>11.74481620389902</v>
+        <v>3.684022363735574</v>
       </c>
       <c r="Q14">
-        <v>0.02401923222868254</v>
+        <v>0.007428437125795226</v>
       </c>
       <c r="R14">
-        <v>24.88353259902585</v>
+        <v>24.05510176591128</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F15">
-        <v>45.21229023625961</v>
+        <v>33.11343136934527</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -2667,157 +2856,157 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L15">
-        <v>47.65676843139605</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M15">
-        <v>29.612533856985</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N15">
-        <v>4865822.962046022</v>
+        <v>4435270.723539879</v>
       </c>
       <c r="O15">
-        <v>4614981.778716205</v>
+        <v>4382242.725396784</v>
       </c>
       <c r="P15">
-        <v>5.104346241128581</v>
+        <v>3.695708921269607</v>
       </c>
       <c r="Q15">
-        <v>0.01040258200664975</v>
+        <v>0.007453427220941059</v>
       </c>
       <c r="R15">
-        <v>23.29741313702804</v>
+        <v>24.20625736941464</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="F16">
-        <v>45.80170306264945</v>
+        <v>33.11343136455542</v>
       </c>
       <c r="G16">
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I16">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>5.096226240974513</v>
+        <v>4.865822962046021</v>
       </c>
       <c r="L16">
-        <v>47.65676843139605</v>
+        <v>16.0741110126623</v>
       </c>
       <c r="M16">
-        <v>29.612533856985</v>
+        <v>9.987986434048986</v>
       </c>
       <c r="N16">
-        <v>4865822.962046022</v>
+        <v>4382242.725396784</v>
       </c>
       <c r="O16">
-        <v>4614981.778716205</v>
+        <v>4330458.91429345</v>
       </c>
       <c r="P16">
-        <v>5.119672950265216</v>
+        <v>3.707084472268352</v>
       </c>
       <c r="Q16">
-        <v>0.01043381761276934</v>
+        <v>0.007477722150133386</v>
       </c>
       <c r="R16">
-        <v>23.29741313702804</v>
+        <v>24.35665071864642</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F17">
-        <v>91.01399327970741</v>
+        <v>58.20223402480989</v>
       </c>
       <c r="G17">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I17">
-        <v>9.525</v>
+        <v>6.35</v>
       </c>
       <c r="J17" t="s">
         <v>85</v>
       </c>
       <c r="K17">
-        <v>4.865822962046021</v>
+        <v>5.060455880527861</v>
       </c>
       <c r="L17">
-        <v>2.343231568603954</v>
+        <v>18.48677776371367</v>
       </c>
       <c r="M17">
-        <v>1.456016143015008</v>
+        <v>11.48714758581653</v>
       </c>
       <c r="N17">
-        <v>4614981.778716205</v>
+        <v>4411092.746776887</v>
       </c>
       <c r="O17">
-        <v>4565172.272426032</v>
+        <v>4330458.91429345</v>
       </c>
       <c r="P17">
-        <v>10.38973523113018</v>
+        <v>4.777066366415822</v>
       </c>
       <c r="Q17">
-        <v>0.02118045302101429</v>
+        <v>0.009633290555157523</v>
       </c>
       <c r="R17">
-        <v>23.42685810240026</v>
+        <v>24.35665071864642</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F18">
-        <v>91.01399328869097</v>
+        <v>91.31565571993266</v>
       </c>
       <c r="G18">
         <v>650</v>
@@ -2835,25 +3024,1761 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>0.5925556540043679</v>
       </c>
       <c r="M18">
-        <v>31.06855</v>
+        <v>0.3681968992843481</v>
       </c>
       <c r="N18">
-        <v>4565172.272426032</v>
+        <v>4330458.91429345</v>
       </c>
       <c r="O18">
-        <v>3325810.201031001</v>
+        <v>4316655.591598033</v>
       </c>
       <c r="P18">
-        <v>14.31962312899442</v>
+        <v>10.22339990012227</v>
       </c>
       <c r="Q18">
-        <v>0.02943540180902455</v>
+        <v>0.02062304091103886</v>
       </c>
       <c r="R18">
-        <v>27.50284371066368</v>
+        <v>24.39721456165833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19">
+        <v>45.30294226220111</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O19">
+        <v>4777378.172072671</v>
+      </c>
+      <c r="P19">
+        <v>4.9654462186474</v>
+      </c>
+      <c r="Q19">
+        <v>0.009999899343943016</v>
+      </c>
+      <c r="R19">
+        <v>23.14070122479519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20">
+        <v>45.30294226207933</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>4777378.172072671</v>
+      </c>
+      <c r="O20">
+        <v>4687189.222890545</v>
+      </c>
+      <c r="P20">
+        <v>4.98074178084122</v>
+      </c>
+      <c r="Q20">
+        <v>0.01003391684945031</v>
+      </c>
+      <c r="R20">
+        <v>23.37226064258866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21">
+        <v>45.3029422619368</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>4687189.222890545</v>
+      </c>
+      <c r="O21">
+        <v>4595148.670309734</v>
+      </c>
+      <c r="P21">
+        <v>4.996177559624259</v>
+      </c>
+      <c r="Q21">
+        <v>0.01006813463033346</v>
+      </c>
+      <c r="R21">
+        <v>23.61588998129399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22">
+        <v>45.30294226188077</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>4595148.670309734</v>
+      </c>
+      <c r="O22">
+        <v>4501143.324428945</v>
+      </c>
+      <c r="P22">
+        <v>5.011755698266229</v>
+      </c>
+      <c r="Q22">
+        <v>0.01010318742228577</v>
+      </c>
+      <c r="R22">
+        <v>23.87121809498894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23">
+        <v>45.30294226172799</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>4501143.324428945</v>
+      </c>
+      <c r="O23">
+        <v>4405048.929147871</v>
+      </c>
+      <c r="P23">
+        <v>5.027478385884899</v>
+      </c>
+      <c r="Q23">
+        <v>0.01013848494281636</v>
+      </c>
+      <c r="R23">
+        <v>24.14090021337123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24">
+        <v>45.30294226162651</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L24">
+        <v>2.605313982169108</v>
+      </c>
+      <c r="M24">
+        <v>1.618866554414401</v>
+      </c>
+      <c r="N24">
+        <v>4405048.929147871</v>
+      </c>
+      <c r="O24">
+        <v>4389829.482994814</v>
+      </c>
+      <c r="P24">
+        <v>5.029949346680525</v>
+      </c>
+      <c r="Q24">
+        <v>0.01014402107364351</v>
+      </c>
+      <c r="R24">
+        <v>24.18445664036469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25">
+        <v>45.89353591565368</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25">
+        <v>7.925</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L25">
+        <v>17.18772946310049</v>
+      </c>
+      <c r="M25">
+        <v>10.67995664421621</v>
+      </c>
+      <c r="N25">
+        <v>4489243.324026057</v>
+      </c>
+      <c r="O25">
+        <v>4389829.482994814</v>
+      </c>
+      <c r="P25">
+        <v>5.052160700687761</v>
+      </c>
+      <c r="Q25">
+        <v>0.01018509826289144</v>
+      </c>
+      <c r="R25">
+        <v>24.18445664036469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26">
+        <v>91.19647808285079</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L26">
+        <v>14.06135268449756</v>
+      </c>
+      <c r="M26">
+        <v>8.737316778918933</v>
+      </c>
+      <c r="N26">
+        <v>4389829.482994814</v>
+      </c>
+      <c r="O26">
+        <v>4054956.812810643</v>
+      </c>
+      <c r="P26">
+        <v>10.13743302240962</v>
+      </c>
+      <c r="Q26">
+        <v>0.02046838492146761</v>
+      </c>
+      <c r="R26">
+        <v>25.20404320246167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27">
+        <v>45.21229022038926</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O27">
+        <v>4777723.770436238</v>
+      </c>
+      <c r="P27">
+        <v>4.955510268830277</v>
+      </c>
+      <c r="Q27">
+        <v>0.00997987681018069</v>
+      </c>
+      <c r="R27">
+        <v>23.13982709632697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28">
+        <v>45.21229022038901</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>4777723.770436238</v>
+      </c>
+      <c r="O28">
+        <v>4687894.292814439</v>
+      </c>
+      <c r="P28">
+        <v>4.970775224382726</v>
+      </c>
+      <c r="Q28">
+        <v>0.01001381433679129</v>
+      </c>
+      <c r="R28">
+        <v>23.37042333533575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29">
+        <v>45.21229022038884</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L29">
+        <v>16.46230094912227</v>
+      </c>
+      <c r="M29">
+        <v>10.22919640305705</v>
+      </c>
+      <c r="N29">
+        <v>4687894.292814439</v>
+      </c>
+      <c r="O29">
+        <v>4597363.967625847</v>
+      </c>
+      <c r="P29">
+        <v>4.985990366096321</v>
+      </c>
+      <c r="Q29">
+        <v>0.01004753282871761</v>
+      </c>
+      <c r="R29">
+        <v>23.60993638518622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30">
+        <v>45.80170307852776</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30">
+        <v>7.925</v>
+      </c>
+      <c r="J30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L30">
+        <v>16.59854476081854</v>
+      </c>
+      <c r="M30">
+        <v>10.31385435657458</v>
+      </c>
+      <c r="N30">
+        <v>4688635.905324435</v>
+      </c>
+      <c r="O30">
+        <v>4597363.967625847</v>
+      </c>
+      <c r="P30">
+        <v>5.007675869169453</v>
+      </c>
+      <c r="Q30">
+        <v>0.0100881261498803</v>
+      </c>
+      <c r="R30">
+        <v>23.60993638518622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31">
+        <v>91.01399329424534</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L31">
+        <v>0.2043657175443947</v>
+      </c>
+      <c r="M31">
+        <v>0.1269869302762781</v>
+      </c>
+      <c r="N31">
+        <v>4597363.967625847</v>
+      </c>
+      <c r="O31">
+        <v>4592924.828285127</v>
+      </c>
+      <c r="P31">
+        <v>10.03715066710419</v>
+      </c>
+      <c r="Q31">
+        <v>0.02022668689932707</v>
+      </c>
+      <c r="R31">
+        <v>23.62187107349405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32">
+        <v>91.01399329489192</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L32">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M32">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N32">
+        <v>4592924.828285127</v>
+      </c>
+      <c r="O32">
+        <v>4214519.828809503</v>
+      </c>
+      <c r="P32">
+        <v>10.06844531636871</v>
+      </c>
+      <c r="Q32">
+        <v>0.02031728206263962</v>
+      </c>
+      <c r="R32">
+        <v>24.70379477866085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33">
+        <v>91.01399329361261</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M33">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N33">
+        <v>4214519.828809503</v>
+      </c>
+      <c r="O33">
+        <v>3796923.793455717</v>
+      </c>
+      <c r="P33">
+        <v>10.10003033475179</v>
+      </c>
+      <c r="Q33">
+        <v>0.02041025449375822</v>
+      </c>
+      <c r="R33">
+        <v>26.08032455600048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34">
+        <v>91.01399329174622</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L34">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M34">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N34">
+        <v>3796923.793455717</v>
+      </c>
+      <c r="O34">
+        <v>3325115.181734041</v>
+      </c>
+      <c r="P34">
+        <v>10.13191021526013</v>
+      </c>
+      <c r="Q34">
+        <v>0.02050679916975144</v>
+      </c>
+      <c r="R34">
+        <v>27.93555744739453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35">
+        <v>61.12186804572051</v>
+      </c>
+      <c r="G35">
+        <v>700</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35">
+        <v>9.525</v>
+      </c>
+      <c r="J35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35">
+        <v>5.687608961592331</v>
+      </c>
+      <c r="L35">
+        <v>16.56485653367842</v>
+      </c>
+      <c r="M35">
+        <v>10.29292146918829</v>
+      </c>
+      <c r="N35">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O35">
+        <v>4758642.15382423</v>
+      </c>
+      <c r="P35">
+        <v>5.834935004239425</v>
+      </c>
+      <c r="Q35">
+        <v>0.01175175776073718</v>
+      </c>
+      <c r="R35">
+        <v>23.1882393616936</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36">
+        <v>61.12186649718598</v>
+      </c>
+      <c r="G36">
+        <v>700</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36">
+        <v>9.525</v>
+      </c>
+      <c r="J36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36">
+        <v>5.687608961592331</v>
+      </c>
+      <c r="L36">
+        <v>16.56485653367842</v>
+      </c>
+      <c r="M36">
+        <v>10.29292146918829</v>
+      </c>
+      <c r="N36">
+        <v>4758642.15382423</v>
+      </c>
+      <c r="O36">
+        <v>4648878.144555547</v>
+      </c>
+      <c r="P36">
+        <v>5.834934518529075</v>
+      </c>
+      <c r="Q36">
+        <v>0.0117517567825</v>
+      </c>
+      <c r="R36">
+        <v>23.47274976691215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37">
+        <v>61.12186462261265</v>
+      </c>
+      <c r="G37">
+        <v>700</v>
+      </c>
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37">
+        <v>9.525</v>
+      </c>
+      <c r="J37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37">
+        <v>5.687608961592331</v>
+      </c>
+      <c r="L37">
+        <v>16.56485653367842</v>
+      </c>
+      <c r="M37">
+        <v>10.29292146918829</v>
+      </c>
+      <c r="N37">
+        <v>4648878.144555547</v>
+      </c>
+      <c r="O37">
+        <v>4536334.640551535</v>
+      </c>
+      <c r="P37">
+        <v>5.822480509253976</v>
+      </c>
+      <c r="Q37">
+        <v>0.01173117457579868</v>
+      </c>
+      <c r="R37">
+        <v>23.77469355015986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38">
+        <v>58.20223411048031</v>
+      </c>
+      <c r="G38">
+        <v>750</v>
+      </c>
+      <c r="H38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38">
+        <v>6.35</v>
+      </c>
+      <c r="J38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L38">
+        <v>18.48677776371367</v>
+      </c>
+      <c r="M38">
+        <v>11.48714758581653</v>
+      </c>
+      <c r="N38">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O38">
+        <v>4793160.54348995</v>
+      </c>
+      <c r="P38">
+        <v>4.816500110757022</v>
+      </c>
+      <c r="Q38">
+        <v>0.009699377927264578</v>
+      </c>
+      <c r="R38">
+        <v>23.1008833202355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39">
+        <v>58.20223409747234</v>
+      </c>
+      <c r="G39">
+        <v>750</v>
+      </c>
+      <c r="H39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39">
+        <v>6.35</v>
+      </c>
+      <c r="J39" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L39">
+        <v>18.48677776371367</v>
+      </c>
+      <c r="M39">
+        <v>11.48714758581653</v>
+      </c>
+      <c r="N39">
+        <v>4793160.54348995</v>
+      </c>
+      <c r="O39">
+        <v>4719329.193174316</v>
+      </c>
+      <c r="P39">
+        <v>4.816500106403793</v>
+      </c>
+      <c r="Q39">
+        <v>0.009699377918498127</v>
+      </c>
+      <c r="R39">
+        <v>23.28894639589833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40">
+        <v>58.20223408243219</v>
+      </c>
+      <c r="G40">
+        <v>750</v>
+      </c>
+      <c r="H40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40">
+        <v>6.35</v>
+      </c>
+      <c r="J40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L40">
+        <v>18.48677776371367</v>
+      </c>
+      <c r="M40">
+        <v>11.48714758581653</v>
+      </c>
+      <c r="N40">
+        <v>4719329.193174316</v>
+      </c>
+      <c r="O40">
+        <v>4644270.613738177</v>
+      </c>
+      <c r="P40">
+        <v>4.808536358968571</v>
+      </c>
+      <c r="Q40">
+        <v>0.009685913446627946</v>
+      </c>
+      <c r="R40">
+        <v>23.48492273661867</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41">
+        <v>58.20223406527104</v>
+      </c>
+      <c r="G41">
+        <v>750</v>
+      </c>
+      <c r="H41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41">
+        <v>6.35</v>
+      </c>
+      <c r="J41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L41">
+        <v>18.48677776371367</v>
+      </c>
+      <c r="M41">
+        <v>11.48714758581653</v>
+      </c>
+      <c r="N41">
+        <v>4644270.613738177</v>
+      </c>
+      <c r="O41">
+        <v>4567921.494771014</v>
+      </c>
+      <c r="P41">
+        <v>4.800611421155499</v>
+      </c>
+      <c r="Q41">
+        <v>0.009672456245153194</v>
+      </c>
+      <c r="R41">
+        <v>23.68904534210997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42">
+        <v>58.20223406221035</v>
+      </c>
+      <c r="G42">
+        <v>750</v>
+      </c>
+      <c r="H42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42">
+        <v>6.35</v>
+      </c>
+      <c r="J42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L42">
+        <v>18.48677776371367</v>
+      </c>
+      <c r="M42">
+        <v>11.48714758581653</v>
+      </c>
+      <c r="N42">
+        <v>4567921.494771014</v>
+      </c>
+      <c r="O42">
+        <v>4490219.793588059</v>
+      </c>
+      <c r="P42">
+        <v>4.792724985847259</v>
+      </c>
+      <c r="Q42">
+        <v>0.009659154467288164</v>
+      </c>
+      <c r="R42">
+        <v>23.90141964625809</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43">
+        <v>58.20223404479972</v>
+      </c>
+      <c r="G43">
+        <v>750</v>
+      </c>
+      <c r="H43" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43">
+        <v>6.35</v>
+      </c>
+      <c r="J43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L43">
+        <v>18.48677776371367</v>
+      </c>
+      <c r="M43">
+        <v>11.48714758581653</v>
+      </c>
+      <c r="N43">
+        <v>4490219.793588059</v>
+      </c>
+      <c r="O43">
+        <v>4411092.746776887</v>
+      </c>
+      <c r="P43">
+        <v>4.784876734807581</v>
+      </c>
+      <c r="Q43">
+        <v>0.009646221310378907</v>
+      </c>
+      <c r="R43">
+        <v>24.12366862040084</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44">
+        <v>45.89353591615534</v>
+      </c>
+      <c r="G44">
+        <v>650</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44">
+        <v>7.925</v>
+      </c>
+      <c r="J44" t="s">
+        <v>93</v>
+      </c>
+      <c r="K44">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L44">
+        <v>17.18772946310049</v>
+      </c>
+      <c r="M44">
+        <v>10.67995664421621</v>
+      </c>
+      <c r="N44">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O44">
+        <v>4774585.461570689</v>
+      </c>
+      <c r="P44">
+        <v>5.100927989500284</v>
+      </c>
+      <c r="Q44">
+        <v>0.01027285003949203</v>
+      </c>
+      <c r="R44">
+        <v>23.14776851673685</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45">
+        <v>45.89353591603283</v>
+      </c>
+      <c r="G45">
+        <v>650</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45">
+        <v>7.925</v>
+      </c>
+      <c r="J45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L45">
+        <v>17.18772946310049</v>
+      </c>
+      <c r="M45">
+        <v>10.67995664421621</v>
+      </c>
+      <c r="N45">
+        <v>4774585.461570689</v>
+      </c>
+      <c r="O45">
+        <v>4681489.579747129</v>
+      </c>
+      <c r="P45">
+        <v>5.100927989431912</v>
+      </c>
+      <c r="Q45">
+        <v>0.01027285003935434</v>
+      </c>
+      <c r="R45">
+        <v>23.38712899140095</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46">
+        <v>45.89353591587999</v>
+      </c>
+      <c r="G46">
+        <v>650</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46">
+        <v>7.925</v>
+      </c>
+      <c r="J46" t="s">
+        <v>93</v>
+      </c>
+      <c r="K46">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L46">
+        <v>17.18772946310049</v>
+      </c>
+      <c r="M46">
+        <v>10.67995664421621</v>
+      </c>
+      <c r="N46">
+        <v>4681489.579747129</v>
+      </c>
+      <c r="O46">
+        <v>4586416.911084577</v>
+      </c>
+      <c r="P46">
+        <v>5.084517885270307</v>
+      </c>
+      <c r="Q46">
+        <v>0.01024318011650925</v>
+      </c>
+      <c r="R46">
+        <v>23.63932242171561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47">
+        <v>45.89353591581732</v>
+      </c>
+      <c r="G47">
+        <v>650</v>
+      </c>
+      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47">
+        <v>7.925</v>
+      </c>
+      <c r="J47" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L47">
+        <v>17.18772946310049</v>
+      </c>
+      <c r="M47">
+        <v>10.67995664421621</v>
+      </c>
+      <c r="N47">
+        <v>4586416.911084577</v>
+      </c>
+      <c r="O47">
+        <v>4489243.324026057</v>
+      </c>
+      <c r="P47">
+        <v>5.068262927645397</v>
+      </c>
+      <c r="Q47">
+        <v>0.01021372347986117</v>
+      </c>
+      <c r="R47">
+        <v>23.90412498974252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48">
+        <v>45.80170307852624</v>
+      </c>
+      <c r="G48">
+        <v>650</v>
+      </c>
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48">
+        <v>7.925</v>
+      </c>
+      <c r="J48" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L48">
+        <v>16.59854476081854</v>
+      </c>
+      <c r="M48">
+        <v>10.31385435657458</v>
+      </c>
+      <c r="N48">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O48">
+        <v>4778087.311035167</v>
+      </c>
+      <c r="P48">
+        <v>5.022880775184452</v>
+      </c>
+      <c r="Q48">
+        <v>0.01011554054521082</v>
+      </c>
+      <c r="R48">
+        <v>23.13890769312257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49">
+        <v>45.80170307852659</v>
+      </c>
+      <c r="G49">
+        <v>650</v>
+      </c>
+      <c r="H49" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49">
+        <v>7.925</v>
+      </c>
+      <c r="J49" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L49">
+        <v>16.59854476081854</v>
+      </c>
+      <c r="M49">
+        <v>10.31385435657458</v>
+      </c>
+      <c r="N49">
+        <v>4778087.311035167</v>
+      </c>
+      <c r="O49">
+        <v>4688635.905324435</v>
+      </c>
+      <c r="P49">
+        <v>5.022880775184603</v>
+      </c>
+      <c r="Q49">
+        <v>0.01011554054521112</v>
+      </c>
+      <c r="R49">
+        <v>23.36849127103</v>
       </c>
     </row>
   </sheetData>
@@ -2871,72 +4796,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2945,16 +4870,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.133286999172112</v>
+        <v>1.133308131198</v>
       </c>
       <c r="I2">
-        <v>29.22699618753624</v>
+        <v>30.09951930361845</v>
       </c>
       <c r="J2">
-        <v>3.057926597597514</v>
+        <v>3.149215884617172</v>
       </c>
       <c r="K2">
-        <v>4100.740725910218</v>
+        <v>4223.161485589319</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2980,16 +4905,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2998,16 +4923,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.126929027832178</v>
+        <v>1.127220566662045</v>
       </c>
       <c r="I3">
-        <v>22.8919347820258</v>
+        <v>23.64859431329451</v>
       </c>
       <c r="J3">
-        <v>2.39510950051981</v>
+        <v>2.474276353354963</v>
       </c>
       <c r="K3">
-        <v>3211.889742387076</v>
+        <v>3318.054075376073</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3033,34 +4958,34 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.199964661314914</v>
+        <v>1.199969120922237</v>
       </c>
       <c r="I4">
-        <v>35.20193387721974</v>
+        <v>36.20730747694672</v>
       </c>
       <c r="J4">
-        <v>3.683065108686197</v>
+        <v>3.788254114473884</v>
       </c>
       <c r="K4">
-        <v>4939.063972050364</v>
+        <v>5080.124532591768</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3091,7 +5016,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3099,15 +5024,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -3115,130 +5040,378 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B3">
-        <v>4553008.387993378</v>
+        <v>4779748.02065544</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B4">
-        <v>4306452.456978833</v>
+        <v>4692022.897428636</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B5">
-        <v>4293548.735316471</v>
+        <v>4602548.880705019</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="B6">
-        <v>4865822.962046022</v>
+        <v>4499669.944162264</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="B7">
-        <v>4641835.188506175</v>
+        <v>4420808.073265151</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="B8">
-        <v>4496689.717610825</v>
+        <v>4293468.676433518</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="B9">
-        <v>4345759.244124011</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B10">
-        <v>4317772.319172739</v>
+        <v>4752636.631339096</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="B11">
-        <v>4865822.962046022</v>
+        <v>4636561.609127824</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B12">
-        <v>4601263.459173525</v>
+        <v>4587482.799107268</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B13">
-        <v>4407622.204805959</v>
+        <v>4537850.342569541</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="B14">
-        <v>4054971.882850352</v>
+        <v>4487646.595751793</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B15">
-        <v>4865822.962046022</v>
+        <v>4435270.723539879</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B16">
-        <v>4614981.778716205</v>
+        <v>4382242.725396784</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="B17">
-        <v>4565172.272426032</v>
+        <v>4330458.91429345</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="B18">
-        <v>3325810.201031001</v>
+        <v>4316655.591598033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20">
+        <v>4777378.172072671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21">
+        <v>4687189.222890545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22">
+        <v>4595148.670309734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23">
+        <v>4501143.324428945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24">
+        <v>4405048.929147871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25">
+        <v>4389829.482994814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26">
+        <v>4054956.812810643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28">
+        <v>4777723.770436238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>4687894.292814439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30">
+        <v>4597363.967625847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31">
+        <v>4592924.828285127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32">
+        <v>4214519.828809503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33">
+        <v>3796923.793455717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34">
+        <v>3325115.181734041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35">
+        <v>4758642.15382423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36">
+        <v>4648878.144555547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37">
+        <v>4536334.640551535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>4793160.54348995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39">
+        <v>4719329.193174316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40">
+        <v>4644270.613738177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41">
+        <v>4567921.494771014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42">
+        <v>4490219.793588059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43">
+        <v>4411092.746776887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44">
+        <v>4774585.461570689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45">
+        <v>4681489.579747129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46">
+        <v>4586416.911084577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47">
+        <v>4489243.324026057</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48">
+        <v>4778087.311035167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49">
+        <v>4688635.905324435</v>
       </c>
     </row>
   </sheetData>
@@ -3256,36 +5429,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.78565217264408</v>
+        <v>19.78564990590441</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -3294,21 +5467,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.52047593991</v>
+        <v>1150.520344130739</v>
       </c>
       <c r="G2">
-        <v>6.60048352456914E-06</v>
+        <v>-4.855999185568019E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269155974477</v>
+        <v>51.44269156147165</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -3317,21 +5490,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999664005</v>
+        <v>2991.352999764422</v>
       </c>
       <c r="G3">
-        <v>-1.123220337469353E-08</v>
+        <v>-7.875299417773366E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
       </c>
       <c r="C4">
-        <v>39.57130172894619</v>
+        <v>39.57130173027456</v>
       </c>
       <c r="D4">
         <v>58.14923187271204</v>
@@ -3340,10 +5513,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799741543</v>
+        <v>2301.040799818786</v>
       </c>
       <c r="G4">
-        <v>-1.123220322449791E-08</v>
+        <v>-7.87530898108724E-09</v>
       </c>
     </row>
   </sheetData>
